--- a/R_output_files/Tables/summarised-results-of-significant-genes-sets-clusters.xlsx
+++ b/R_output_files/Tables/summarised-results-of-significant-genes-sets-clusters.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="I2">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J2">
         <v>499.2969529175621</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="I3">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J3">
         <v>499.2969529175621</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="I4">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J4">
         <v>616.1063118696301</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="I5">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J5">
         <v>616.1063118696301</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="I6">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J6">
         <v>878.0537231662413</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="I7">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J7">
         <v>878.0537231662413</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="I8">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J8">
         <v>1832.227319222235</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="I9">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J9">
         <v>1832.227319222235</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="I10">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J10">
         <v>187.4763657843112</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="I11">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J11">
         <v>1520.556708369407</v>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="I12">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J12">
         <v>1520.556708369407</v>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="I13">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J13">
         <v>91.20691844741565</v>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="I14">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J14">
         <v>91.20691844741565</v>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="I15">
-        <v>0.00059546436437182</v>
+        <v>0.00039871162288895</v>
       </c>
       <c r="J15">
         <v>91.20691844741565</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="I16">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J16">
         <v>76.89893250241639</v>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="I17">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J17">
         <v>76.89893250241639</v>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="I18">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J18">
         <v>93.54748997147252</v>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="I19">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J19">
         <v>93.54748997147252</v>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="I20">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J20">
         <v>498.6871800839166</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="I21">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J21">
         <v>498.6871800839166</v>
@@ -1305,7 +1305,7 @@
         </is>
       </c>
       <c r="I22">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J22">
         <v>161.0588942336743</v>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="I23">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J23">
         <v>161.0588942336743</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="I24">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J24">
         <v>627.6706512232452</v>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="I25">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J25">
         <v>505.8065296679449</v>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="I26">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J26">
         <v>16.40056246227507</v>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="I27">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J27">
         <v>781.3224677752794</v>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="I28">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J28">
         <v>781.3224677752794</v>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="I29">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J29">
         <v>444.929998100304</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="I30">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J30">
         <v>444.929998100304</v>
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="I31">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J31">
         <v>614.0854927044073</v>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="I32">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J32">
         <v>614.0854927044073</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="I33">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J33">
         <v>380.1736426610516</v>
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="I34">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J34">
         <v>380.1736426610516</v>
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="I35">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J35">
         <v>380.1736426610516</v>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="I36">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J36">
         <v>380.1736426610516</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="I37">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J37">
         <v>1.395106104454165</v>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="I38">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J38">
         <v>584.1283445949055</v>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="I39">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J39">
         <v>584.1283445949055</v>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="I40">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J40">
         <v>584.1283445949055</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="I41">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J41">
         <v>584.1283445949055</v>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="I42">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J42">
         <v>851.409975193362</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="I43">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J43">
         <v>5.796880759334919</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="I44">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J44">
         <v>176.899624218629</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="I45">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J45">
         <v>176.899624218629</v>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="I46">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J46">
         <v>287.0968419042183</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="I47">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J47">
         <v>350.2572434958134</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="I48">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J48">
         <v>350.2572434958134</v>
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="I49">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J49">
         <v>1.673757213523115</v>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="I50">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J50">
         <v>444.3591249396322</v>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="I51">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J51">
         <v>444.3591249396322</v>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="I52">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J52">
         <v>444.3591249396322</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="I53">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J53">
         <v>444.3591249396322</v>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="I54">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J54">
         <v>159.8271594496505</v>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="I55">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J55">
         <v>159.8271594496505</v>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="I56">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J56">
         <v>708.5265937723999</v>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="I57">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J57">
         <v>708.5265937723999</v>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="I58">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J58">
         <v>1388.282061043251</v>
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="I59">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J59">
         <v>1388.282061043251</v>
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="I60">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J60">
         <v>322.9433166884492</v>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="I61">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J61">
         <v>322.9433166884492</v>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="I62">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J62">
         <v>524.7873387354533</v>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="I63">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J63">
         <v>524.7873387354533</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="I64">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J64">
         <v>309.0658379594492</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="I65">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J65">
         <v>641.1197151682319</v>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="I66">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J66">
         <v>641.1197151682319</v>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="I67">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J67">
         <v>909.2179552362496</v>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="I68">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J68">
         <v>909.2179552362496</v>
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="I69">
-        <v>1.51819359212458e-06</v>
+        <v>8.37540973712899e-07</v>
       </c>
       <c r="J69">
         <v>67.73189933126763</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="I70">
-        <v>4.94678073910115e-10</v>
+        <v>1.82889267175051e-10</v>
       </c>
       <c r="J70">
         <v>67.73189933126763</v>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="I71">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J71">
         <v>1416.770776341546</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="I72">
-        <v>0.00987944175175867</v>
+        <v>0.008680062894527911</v>
       </c>
       <c r="J72">
         <v>1416.770776341546</v>
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="I73">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J73">
         <v>1416.770776341546</v>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="I74">
-        <v>0.0026577895168362</v>
+        <v>0.00205086261359692</v>
       </c>
       <c r="J74">
         <v>1416.770776341546</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="I75">
-        <v>0.00059546436437182</v>
+        <v>0.00039871162288895</v>
       </c>
       <c r="J75">
         <v>1416.770776341546</v>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="I76">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J76">
         <v>1416.770776341546</v>
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="I77">
-        <v>3.66822435292804e-08</v>
+        <v>2.26726039554195e-08</v>
       </c>
       <c r="J77">
         <v>589.6081299785047</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="I78">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J78">
         <v>41.12518422051768</v>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="I79">
-        <v>0.00059546436437182</v>
+        <v>0.00039871162288895</v>
       </c>
       <c r="J79">
         <v>156.7843396470657</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="I80">
-        <v>0.00059546436437182</v>
+        <v>0.00039871162288895</v>
       </c>
       <c r="J80">
         <v>37.93262367591529</v>
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="I81">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J81">
         <v>2.112490967675596</v>
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="I82">
-        <v>0.0026577895168362</v>
+        <v>0.00205086261359692</v>
       </c>
       <c r="J82">
         <v>2.112490967675596</v>
@@ -3925,7 +3925,7 @@
         </is>
       </c>
       <c r="I83">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J83">
         <v>2.112490967675596</v>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="I84">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J84">
         <v>3.736773586371614</v>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="I85">
-        <v>0.0026577895168362</v>
+        <v>0.00205086261359692</v>
       </c>
       <c r="J85">
         <v>3.736773586371614</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="I86">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J86">
         <v>3.736773586371614</v>
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="I87">
-        <v>0.0026577895168362</v>
+        <v>0.00205086261359692</v>
       </c>
       <c r="J87">
         <v>8.108939610207978</v>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="I88">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J88">
         <v>194.1802635899653</v>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="I89">
-        <v>0.0026577895168362</v>
+        <v>0.00205086261359692</v>
       </c>
       <c r="J89">
         <v>194.1802635899653</v>
@@ -4223,7 +4223,7 @@
         </is>
       </c>
       <c r="I90">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J90">
         <v>194.1802635899653</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="I91">
-        <v>0.00059546436437182</v>
+        <v>0.00039871162288895</v>
       </c>
       <c r="J91">
         <v>89.00904865299771</v>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="I92">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J92">
         <v>549.0514484002701</v>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="I93">
-        <v>1.98871002275324e-15</v>
+        <v>4.97791269140648e-16</v>
       </c>
       <c r="J93">
         <v>10.77108010988075</v>
@@ -4395,7 +4395,7 @@
         </is>
       </c>
       <c r="I94">
-        <v>0.00600469912169491</v>
+        <v>0.0028188798798763</v>
       </c>
       <c r="J94">
         <v>10.77108010988075</v>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="I95">
-        <v>0.0026577895168362</v>
+        <v>0.00205086261359692</v>
       </c>
       <c r="J95">
         <v>16.9565100658353</v>
